--- a/Bogue_input.xlsx
+++ b/Bogue_input.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niall.holmes\OneDrive - Technological University Dublin\Documents\Research Files\Cement Hydration Model\HYDCEM Matlab models\Bogue Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/niall_holmes_tudublin_ie/Documents/Documents/Research Files/Cement Hydration Model/Models/MATLAB/Bogue Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_536AE4ECD4C7F50B3E5E1BFB723A068733926AE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27742810-2A9A-4668-B72B-B36C218FF9E2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="871" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="14655" windowHeight="15315" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cement" sheetId="2" r:id="rId1"/>
+    <sheet name="oxides" sheetId="7" r:id="rId1"/>
     <sheet name="molar_mass" sheetId="5" r:id="rId2"/>
-    <sheet name="oxides_PC" sheetId="7" r:id="rId3"/>
-    <sheet name="oxides_LS" sheetId="9" r:id="rId4"/>
-    <sheet name="binder" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
-  <si>
-    <t>1 Box Size (µm)</t>
-  </si>
-  <si>
-    <t>2 w/c ratio</t>
-  </si>
-  <si>
-    <t>3 Percentage Limestone (x weight)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>1 Oxygen (O)</t>
   </si>
@@ -132,18 +132,9 @@
     <t>14 Na2SO4</t>
   </si>
   <si>
-    <t>11 Soluble K2O</t>
-  </si>
-  <si>
-    <t>12 Soluble Na2O</t>
-  </si>
-  <si>
     <t>15 MgO periclase</t>
   </si>
   <si>
-    <t>4 Temperature (deg C)</t>
-  </si>
-  <si>
     <t>18 Pozzolanic C-S-H fly-ash</t>
   </si>
   <si>
@@ -160,18 +151,12 @@
   </si>
   <si>
     <t>23 GGBS Hydrotalcite</t>
-  </si>
-  <si>
-    <t>5 Percentage Flyash (x weight)</t>
-  </si>
-  <si>
-    <t>6 Percentage GGBS (x weight)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -198,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,25 +210,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -250,6 +236,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,65 +504,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>100</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
+      <c r="A1" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
+      <c r="A2" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
+      <c r="A3" s="6">
+        <v>2.67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
+        <v>63.2</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>44</v>
+      <c r="A5" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
+      <c r="A6" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -581,11 +643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,152 +660,152 @@
       <c r="A1" s="3">
         <v>15.9994</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40.078000000000003</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>32.064999999999998</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>26.9815</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>28.0855</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>55.844999999999999</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.0079</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>22.989768999999999</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>39.098300000000002</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>24.31</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12.01</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>96.06</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>35.453000000000003</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>62.004899999999999</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
+      <c r="C14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17.007999999999999</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>17</v>
+      <c r="C15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44.01</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>18</v>
+      <c r="C16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>80.066000000000003</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
+      <c r="C17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>172.042</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>162.02529999999999</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>39</v>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,7 +813,7 @@
         <v>418.32219999999995</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,7 +821,7 @@
         <v>976.84299999999996</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +829,7 @@
         <v>197.00899999999999</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,443 +837,10 @@
         <v>556.053</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>63.2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1.85</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1.93</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3.35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>55</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>43.5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>((oxides_PC!A1*(100-cement!$A$3))+(oxides_LS!A1*cement!$A$3))/100</f>
-        <v>19.7</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>((oxides_PC!A2*(100-cement!$A$3))+(oxides_LS!A2*cement!$A$3))/100</f>
-        <v>4.7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>((oxides_PC!A3*(100-cement!$A$3))+(oxides_LS!A3*cement!$A$3))/100</f>
-        <v>2.67</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>((oxides_PC!A4*(100-cement!$A$3))+(oxides_LS!A4*cement!$A$3))/100</f>
-        <v>63.2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>((oxides_PC!A5*(100-cement!$A$3))+(oxides_LS!A5*cement!$A$3))/100</f>
-        <v>1.85</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>((oxides_PC!A6*(100-cement!$A$3))+(oxides_LS!A6*cement!$A$3))/100</f>
-        <v>0.08</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>((oxides_PC!A7*(100-cement!$A$3))+(oxides_LS!A7*cement!$A$3))/100</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>((oxides_PC!A8*(100-cement!$A$3))+(oxides_LS!A8*cement!$A$3))/100</f>
-        <v>0.46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>((oxides_PC!A9*(100-cement!$A$3))+(oxides_LS!A9*cement!$A$3))/100</f>
-        <v>1.93</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>((oxides_PC!A10*(100-cement!$A$3))+(oxides_LS!A10*cement!$A$3))/100</f>
-        <v>3.35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>((oxides_PC!A11*(100-cement!$A$3))+(oxides_LS!A11*cement!$A$3))/100</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>((oxides_PC!A12*(100-cement!$A$3))+(oxides_LS!A12*cement!$A$3))/100</f>
-        <v>0.86</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>((oxides_PC!A13*(100-cement!$A$3))+(oxides_LS!A13*cement!$A$3))/100</f>
-        <v>1.3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>((oxides_PC!A14*(100-cement!$A$3))+(oxides_LS!A14*cement!$A$3))/100</f>
-        <v>0.21</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>((oxides_PC!A15*(100-cement!$A$3))+(oxides_LS!A15*cement!$A$3))/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>